--- a/project/data/time_series_municipal_waste.xlsx
+++ b/project/data/time_series_municipal_waste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huawei\Masaüstü\Hacettepe doktora\EMÜ 660 Analitik Yöntemler ile Karar Verme\Github\emu660-spring2024-Dilara-pro\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B4D5A-DD9D-423A-95F8-72D126CE878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B4655A-6FA2-48A2-9056-A630E8DDA28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,7 +730,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###\ ###\ ###"/>
-    <numFmt numFmtId="166" formatCode="###\ ###\ ###\ ###"/>
+    <numFmt numFmtId="165" formatCode="###\ ###\ ###\ ###"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -978,7 +978,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1063,16 +1063,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1081,36 +1109,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1425,7 +1423,7 @@
   <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1504,58 +1502,58 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="44">
         <v>62810111</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="44">
         <v>62810111</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="44">
         <v>62810111</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="44">
         <v>62810111</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="44">
         <v>62810111</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="44">
         <v>67803927</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="44">
         <v>67803927</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="44">
         <v>67803927</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="44">
         <v>67803927</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="44">
         <v>70586256</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="44">
         <v>70586256</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="44">
         <v>73722988</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="24">
         <v>75627384</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="24">
         <v>77695904</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="24">
         <v>79814871</v>
       </c>
-      <c r="Q2" s="51">
+      <c r="Q2" s="45">
         <v>82003882</v>
       </c>
-      <c r="R2" s="51">
+      <c r="R2" s="45">
         <v>83614362</v>
       </c>
-      <c r="S2" s="51">
+      <c r="S2" s="45">
         <v>85279553</v>
       </c>
     </row>
@@ -1563,58 +1561,58 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="44">
         <v>2740</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="24">
         <v>2801</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="24">
         <v>2827</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="24">
         <v>2835</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="24">
         <v>2834</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="24">
         <v>3227</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="24">
         <v>3227</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="24">
         <v>3227</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="24">
         <v>3225</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="24">
         <v>3225</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="24">
         <v>3225</v>
       </c>
-      <c r="M3" s="50">
+      <c r="M3" s="24">
         <v>2950</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="24">
         <v>2950</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="24">
         <v>1396</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="24">
         <v>1397</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="45">
         <v>1399</v>
       </c>
-      <c r="R3" s="50">
+      <c r="R3" s="24">
         <v>1389</v>
       </c>
-      <c r="S3" s="50">
+      <c r="S3" s="24">
         <v>1391</v>
       </c>
     </row>
@@ -1622,58 +1620,58 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="44">
         <v>47597657</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="24">
         <v>47774543</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="24">
         <v>47843698</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="24">
         <v>47865511</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="24">
         <v>47862511</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="24">
         <v>53407613</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="24">
         <v>53421379</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="24">
         <v>53430733</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="24">
         <v>53935050</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="24">
         <v>58581515</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="24">
         <v>58581515</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="24">
         <v>61571332</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="24">
         <v>63743047</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="24">
         <v>72505107</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="24">
         <v>74911343</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="Q4" s="45">
         <v>76888607</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="24">
         <v>78920614</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="46">
         <v>80785141</v>
       </c>
     </row>
@@ -1681,58 +1679,58 @@
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="44">
         <v>1985</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="24">
         <v>2126</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="24">
         <v>2172</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="24">
         <v>2275</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="24">
         <v>2579</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="24">
         <v>2921</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="24">
         <v>2984</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="24">
         <v>3018</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="24">
         <v>3028</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="24">
         <v>3115</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="24">
         <v>3129</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="24">
         <v>2879</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="24">
         <v>2894</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="24">
         <v>1391</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="24">
         <v>1390</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="45">
         <v>1395</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="24">
         <v>1387</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="46">
         <v>1389</v>
       </c>
       <c r="T5"/>
@@ -1741,58 +1739,58 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="44">
         <v>44299271</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="24">
         <v>45143673</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="24">
         <v>44849212</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="24">
         <v>45239521</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="24">
         <v>45195192</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="24">
         <v>50875794</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="24">
         <v>51763134</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="24">
         <v>51862924</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="24">
         <v>52329045</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="24">
         <v>57451562</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="24">
         <v>57800347</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="24">
         <v>60946131</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="24">
         <v>63105474</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="24">
         <v>70843913</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="24">
         <v>73854880</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="45">
         <v>75952539.049999997</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="24">
         <v>78204213.289999977</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="46">
         <v>80319403.100000009</v>
       </c>
       <c r="T6"/>
@@ -1801,58 +1799,58 @@
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="47">
         <v>93.070276547435938</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="47">
         <v>94.493155067961609</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="47">
         <v>93.741106717963149</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="47">
         <v>94.513816012535628</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="47">
         <v>94.4271227224163</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="47">
         <v>95.259441757863243</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="47">
         <v>96.895915023084669</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="47">
         <v>97.065716841279354</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="47">
         <v>97.022335197612691</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="47">
         <v>98.07114411431661</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="47">
         <v>98.666528170191569</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="47">
         <v>98.984590750773421</v>
       </c>
-      <c r="N7" s="53">
+      <c r="N7" s="47">
         <v>98.999776399142007</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="47">
         <v>97.708859322144022</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="47">
         <v>98.589715578854324</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="47">
         <v>98.782566121922315</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="48">
         <v>99.092251474373953</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="46">
         <v>99.423485687794994</v>
       </c>
       <c r="T7" s="15"/>
@@ -1861,58 +1859,58 @@
       <c r="A8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="49">
         <v>23448</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="49">
         <v>27234.13</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="49">
         <v>29347.98</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="49">
         <v>31943.77</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="49">
         <v>32972.89</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="49">
         <v>31030.87</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="49">
         <v>30999.26</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="49">
         <v>31081.37</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="49">
         <v>29736.1</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="49">
         <v>30081.82</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="49">
         <v>28454</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="49">
         <v>29733</v>
       </c>
-      <c r="N8" s="55">
+      <c r="N8" s="49">
         <v>30786</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="49">
         <v>31230</v>
       </c>
-      <c r="P8" s="56">
+      <c r="P8" s="50">
         <v>33763.457000000002</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="51">
         <v>34532.646137946082</v>
       </c>
-      <c r="R8" s="57">
+      <c r="R8" s="51">
         <v>34757.760426274705</v>
       </c>
-      <c r="S8" s="57">
+      <c r="S8" s="51">
         <v>32422.181962037255</v>
       </c>
       <c r="T8"/>
@@ -1921,58 +1919,58 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="44">
         <v>17757</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="24">
         <v>20910</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="24">
         <v>22483</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="24">
         <v>24180</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="24">
         <v>24945</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="24">
         <v>25134</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="24">
         <v>25373</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="24">
         <v>26118</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="24">
         <v>25014</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="24">
         <v>25280</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="24">
         <v>24361</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="24">
         <v>25277</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="24">
         <v>25845</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="24">
         <v>28011</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="24">
         <v>31583.552874000001</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="24">
         <v>32209.22173045003</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="24">
         <v>32324.472381563039</v>
       </c>
-      <c r="S9" s="57">
+      <c r="S9" s="51">
         <v>30283.756564639971</v>
       </c>
       <c r="T9"/>
@@ -1982,58 +1980,58 @@
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="24">
         <v>1.27</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="24">
         <v>1.37</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="24">
         <v>1.46</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="24">
         <v>1.51</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="24">
         <v>1.35</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="24">
         <v>1.34</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="24">
         <v>1.38</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="24">
         <v>1.31</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="24">
         <v>1.21</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="24">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="24">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="24">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="24">
         <v>1.08</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="24">
         <v>1.17162578352844</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="24">
         <v>1.161836644315887</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="24">
         <v>1.1324223412011027</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="46">
         <v>1.0329906954638057</v>
       </c>
       <c r="T10"/>
@@ -2042,82 +2040,79 @@
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
       <c r="T11"/>
     </row>
     <row r="12" spans="1:256" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="44">
         <v>1001</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="44">
         <v>1603</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="44">
         <v>3026</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="44">
         <v>4544</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="44">
         <v>5424</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="44">
         <v>8522</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="44">
         <v>7430</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="44">
         <v>7758</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="44">
         <v>7353</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="44">
         <v>9683</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="44">
         <v>11223</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="44">
         <v>13941</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="44">
         <v>15639</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="44">
         <v>17933</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="44">
         <v>22430.384604000003</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="44">
         <v>25614.684680449995</v>
       </c>
-      <c r="R12" s="49">
+      <c r="R12" s="44">
         <v>26707.24013088303</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="44">
         <v>26017</v>
       </c>
       <c r="T12" s="41"/>
@@ -2362,58 +2357,58 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="44">
         <v>14479</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="44">
         <v>17175</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="44">
         <v>17520</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="44">
         <v>16805</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="44">
         <v>16853</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="44">
         <v>14570</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="44">
         <v>16310</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="44">
         <v>16567</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="44">
         <v>16416</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="44">
         <v>14941</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="44">
         <v>12678</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="44">
         <v>11001</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="44">
         <v>9772</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="44">
         <v>9935</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="44">
         <v>9094.9059859999998</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="44">
         <v>6520.6565799999998</v>
       </c>
-      <c r="R13" s="49">
+      <c r="R13" s="44">
         <v>5492.8027699999993</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="44">
         <v>4093</v>
       </c>
       <c r="T13"/>
@@ -2422,58 +2417,58 @@
       <c r="A14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="53">
         <v>2276</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="53">
         <v>2131</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="53">
         <v>1935</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="53">
         <v>2822</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="53">
         <v>2652</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="53">
         <v>2042</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="53">
         <v>1634</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="53">
         <v>1793</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="53">
         <v>1246</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="53">
         <v>656</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="53">
         <v>460</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="53">
         <v>334</v>
       </c>
-      <c r="N14" s="60">
+      <c r="N14" s="53">
         <v>437</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="53">
         <v>141</v>
       </c>
-      <c r="P14" s="60">
+      <c r="P14" s="53">
         <v>58.381950000000003</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q14" s="53">
         <v>73.880470000000003</v>
       </c>
-      <c r="R14" s="60">
+      <c r="R14" s="53">
         <v>124.42947900000001</v>
       </c>
-      <c r="S14" s="60">
+      <c r="S14" s="53">
         <v>174</v>
       </c>
       <c r="T14" s="40"/>
@@ -2501,72 +2496,72 @@
       <c r="Y16" s="35"/>
     </row>
     <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
       <c r="X17" s="43"/>
       <c r="Y17" s="35"/>
     </row>
     <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="35"/>
     </row>
     <row r="19" spans="1:25" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="1:25" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
     </row>
     <row r="21" spans="1:25" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
@@ -2592,21 +2587,21 @@
       <c r="B24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3224,39 +3219,39 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
       <c r="N47" s="1"/>
     </row>
   </sheetData>
